--- a/biology/Zoologie/Carnosaur_(roman)/Carnosaur_(roman).xlsx
+++ b/biology/Zoologie/Carnosaur_(roman)/Carnosaur_(roman).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carnosaur est un roman de science-fiction publié par l'auteur australien John Brosnan en 1984, sous le pseudonyme d'Harry Adam Knight. Il a été adapté au cinéma par Adam Simon en 1993.
-Ce roman présente plusieurs similitudes avec le Jurassic Park de Michael Crichton, bien que publié six ans auparavant. Brosnan a d'ailleurs craint que le public ne considère la réédition de son livre chez Gollancz comme un plagiat de Jurassic Park. Il a reconnu qu'il aimait la scène finale du film de Steven Spielberg (dans laquelle des dinosaures se déchaînent dans un musée), car elle est similaire à une scène de Carnosaur[1].
+Ce roman présente plusieurs similitudes avec le Jurassic Park de Michael Crichton, bien que publié six ans auparavant. Brosnan a d'ailleurs craint que le public ne considère la réédition de son livre chez Gollancz comme un plagiat de Jurassic Park. Il a reconnu qu'il aimait la scène finale du film de Steven Spielberg (dans laquelle des dinosaures se déchaînent dans un musée), car elle est similaire à une scène de Carnosaur.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'action se situe dans un village rural du Cambridgeshire, en Angleterre.
 Un élevage de poulets est attaqué, de nuit, par une mystérieuse créature, qui tue le fermier et sa femme. La rumeur circule que l'animal était un tigre de Sibérie, qui se serait échappé du zoo d'un lord excentrique nommé Darren Penward. Un journaliste, David Pascal, enquête sur les lieux du massacre et s'aperçoit que la chambre dans laquelle s'est produit le drame a été soigneusement nettoyée, comme pour effacer les traces du tueur.
@@ -551,11 +565,13 @@
           <t>Contexte</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Brosnan a raconté qu'il a songé à écrire un roman sur les dinosaures en 1983, lorsqu'un de ses amis, journaliste cinématographique qui revenait d'Hollywood, lui a dit que les films de dinosaures constitueraient le prochain filon. Il a envoyé son manuscrit aux éditions Star Books, qui l'ont publié en 1984.
-Brosnan a été déçu de constater que la « mode » des films de dinosaures à laquelle il s'attendait n'a finalement jamais vu le jour. De plus, son roman est quasiment passé inaperçu au Royaume-Uni. Il a cependant été encouragé en 1987, lorsque Lisa Tuttle lui a révélé qu'il avait plusieurs fans à Austin, au Texas. Le livre a ensuite été publié aux États-Unis par Bart Books en 1989, mais sans grand succès[2].
-Bien que Brosnan ait dit et répété qu'il n'aimait pas l'adaptation cinématographique de son roman par Adam Simon, ce film a le mérite d'avoir fait connaître l'ouvrage[2].
+Brosnan a été déçu de constater que la « mode » des films de dinosaures à laquelle il s'attendait n'a finalement jamais vu le jour. De plus, son roman est quasiment passé inaperçu au Royaume-Uni. Il a cependant été encouragé en 1987, lorsque Lisa Tuttle lui a révélé qu'il avait plusieurs fans à Austin, au Texas. Le livre a ensuite été publié aux États-Unis par Bart Books en 1989, mais sans grand succès.
+Bien que Brosnan ait dit et répété qu'il n'aimait pas l'adaptation cinématographique de son roman par Adam Simon, ce film a le mérite d'avoir fait connaître l'ouvrage.
 </t>
         </is>
       </c>
@@ -584,7 +600,9 @@
           <t>Espèces apparaissant dans le roman</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Deinonychus
 Megalosaurus
